--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Do\Desktop\baecodeMahak\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FB1D6D-BF0B-4C5F-9D74-FBA4782444CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="adfs" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,13 +24,60 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>تست 1</t>
+  </si>
+  <si>
+    <t>تست 2</t>
+  </si>
+  <si>
+    <t>تست 3</t>
+  </si>
+  <si>
+    <t>تست 4</t>
+  </si>
+  <si>
+    <t>تست 5</t>
+  </si>
+  <si>
+    <t>تست 6</t>
+  </si>
+  <si>
+    <t>تست 7</t>
+  </si>
+  <si>
+    <t>تست 8</t>
+  </si>
+  <si>
+    <t>تست 9</t>
+  </si>
+  <si>
+    <t>تست 10</t>
+  </si>
+  <si>
+    <t>شناسه</t>
+  </si>
+  <si>
+    <t>عنوان</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -330,13 +383,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Do\Desktop\baecodeMahak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alireza\Desktop\barcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FB1D6D-BF0B-4C5F-9D74-FBA4782444CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549AB782-7E9C-45B0-B231-6DA6F196798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adfs" sheetId="1" r:id="rId1"/>
@@ -25,72 +25,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>تست 1</t>
-  </si>
-  <si>
-    <t>تست 2</t>
-  </si>
-  <si>
-    <t>تست 3</t>
-  </si>
-  <si>
-    <t>تست 4</t>
-  </si>
-  <si>
-    <t>تست 5</t>
-  </si>
-  <si>
-    <t>تست 6</t>
-  </si>
-  <si>
-    <t>تست 7</t>
-  </si>
-  <si>
-    <t>تست 8</t>
-  </si>
-  <si>
-    <t>تست 9</t>
-  </si>
-  <si>
-    <t>تست 10</t>
-  </si>
-  <si>
-    <t>شناسه</t>
-  </si>
-  <si>
-    <t>عنوان</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+  <si>
+    <t>کد</t>
+  </si>
+  <si>
+    <t>نام کامل کالا</t>
+  </si>
+  <si>
+    <t>موجودي</t>
+  </si>
+  <si>
+    <t>واحد</t>
+  </si>
+  <si>
+    <t>فروش نقدي</t>
+  </si>
+  <si>
+    <t>خريد نقدي</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>شناسه مالیاتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طاقه مخملي  </t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>متر طول</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Mahakk"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Mahak"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="MahakNum"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,12 +122,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,100 +438,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
